--- a/meetresultaten.xlsx
+++ b/meetresultaten.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>PPM</t>
   </si>
@@ -36,12 +36,21 @@
   </si>
   <si>
     <t>RS_Ratio</t>
+  </si>
+  <si>
+    <t>RO  is de weerstand van de sensor in clean air</t>
+  </si>
+  <si>
+    <t>RS is de weerstand van de sensor blootgsteld aan een gas</t>
+  </si>
+  <si>
+    <t>kamerlucht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,30 +395,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f>3.24</f>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.16</v>
+      </c>
+      <c r="D5">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="D6">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E6">
+        <v>32.03</v>
       </c>
     </row>
   </sheetData>
